--- a/Habitat_Design_Specification.xlsx
+++ b/Habitat_Design_Specification.xlsx
@@ -8,109 +8,142 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gille\Documents\TU Delft\00 Master ASM\03 Q3\02 Knoweledge Based engineering\Parapy test\pythonProject\KBE assignment\20240409_Main_branch_clone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F4E3C8-6842-47BF-BA90-F0CF4A0A6AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC86C127-2AC5-45DA-A04D-5857E1A8D7B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="2760" windowWidth="14340" windowHeight="8880" activeTab="2" xr2:uid="{A04042B9-25EA-4B04-94CC-3B3550CB42E9}"/>
+    <workbookView xWindow="1044" yWindow="3360" windowWidth="14340" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Design Specification Sheet" sheetId="2" r:id="rId1"/>
-    <sheet name="Module Specifications" sheetId="3" r:id="rId2"/>
-    <sheet name="Environmental Input Data" sheetId="1" r:id="rId3"/>
+    <sheet name="Design Specification" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="41">
+  <si>
+    <t>Outputs</t>
+  </si>
+  <si>
+    <t>Inputs</t>
+  </si>
+  <si>
+    <t>Geometric outline</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
   <si>
     <t>Mars</t>
   </si>
   <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>Number of Occupants</t>
+  </si>
+  <si>
+    <t>Floors</t>
+  </si>
+  <si>
+    <t>Mission Length</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>Science modules</t>
+  </si>
+  <si>
+    <t>Wheather station</t>
+  </si>
+  <si>
+    <t>Spectrometer</t>
+  </si>
+  <si>
+    <t>Base diameter</t>
+  </si>
+  <si>
+    <t>Workshop</t>
+  </si>
+  <si>
+    <t>Communications</t>
+  </si>
+  <si>
+    <t>Power usage/module</t>
+  </si>
+  <si>
+    <t>etc</t>
+  </si>
+  <si>
+    <t>Science</t>
+  </si>
+  <si>
+    <t>Total Power</t>
+  </si>
+  <si>
+    <t>Volume usage/module</t>
+  </si>
+  <si>
+    <t>[m^3]</t>
+  </si>
+  <si>
+    <t>Lifesupport</t>
+  </si>
+  <si>
+    <t>Livingquarters</t>
+  </si>
+  <si>
     <t>Moon</t>
   </si>
   <si>
-    <t>Earth</t>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Temperature minimum  (°C)</t>
+  </si>
+  <si>
+    <t>Celsius</t>
+  </si>
+  <si>
+    <t>Mars T</t>
+  </si>
+  <si>
+    <t>Moon T</t>
   </si>
   <si>
     <t>Regolith conductivity</t>
   </si>
   <si>
-    <t>Habitat Design Specification</t>
-  </si>
-  <si>
-    <t>Module Specifications</t>
+    <t>W/mK</t>
+  </si>
+  <si>
+    <t>Mars_conductivity</t>
+  </si>
+  <si>
+    <t>Moon_conducitvity</t>
   </si>
   <si>
     <t>Regolith emissivity</t>
   </si>
   <si>
-    <t>Environment</t>
-  </si>
-  <si>
-    <t>Number of Occupants</t>
-  </si>
-  <si>
-    <t>Mission Length</t>
-  </si>
-  <si>
-    <t>Habitat Specifications</t>
-  </si>
-  <si>
-    <t>Number of Floors</t>
-  </si>
-  <si>
-    <t>Total Print Height</t>
-  </si>
-  <si>
-    <t>Module Overview</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Science </t>
-  </si>
-  <si>
-    <t>Communications</t>
-  </si>
-  <si>
-    <t>Living Quarters</t>
-  </si>
-  <si>
-    <t>Airlock</t>
-  </si>
-  <si>
-    <t>Life Support</t>
-  </si>
-  <si>
-    <t>Workshop</t>
-  </si>
-  <si>
-    <r>
-      <t>Temperature minimum  (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Univers"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>°</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>C)</t>
-    </r>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Mars_emmisivity</t>
+  </si>
+  <si>
+    <t>Science modules options (EXAMPLE)</t>
+  </si>
+  <si>
+    <t>Atmospheric sampler</t>
   </si>
 </sst>
 </file>
@@ -126,35 +159,51 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="36"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Univers"/>
-      <family val="2"/>
-      <charset val="1"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -162,18 +211,173 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -187,6 +391,59 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>358139</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>378057</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect l="23928" t="12488" r="13175" b="7681"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3375659" y="335279"/>
+          <a:ext cx="3067918" cy="3368041"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -485,173 +742,372 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DE2F569-83B2-4A72-A09A-200CD539C668}">
-  <dimension ref="B2:B22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A3:P22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="12" max="12" width="19" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="10.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="L3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="25"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="O4" s="8"/>
+      <c r="P4" s="9"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" s="11">
+        <v>6</v>
+      </c>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="16"/>
+      <c r="C7" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="6"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="21"/>
+      <c r="C10" s="22"/>
+      <c r="L10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="5"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="14"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="21"/>
+      <c r="C18" s="22"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="16"/>
+      <c r="C19" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="15"/>
+      <c r="C20" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="16"/>
+      <c r="C21" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="L3:P3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:2" ht="46.2" x14ac:dyDescent="0.85">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5">
+        <v>-150</v>
+      </c>
+      <c r="C5">
+        <v>-246</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7">
+        <v>3.9E-2</v>
+      </c>
+      <c r="C7">
+        <v>2.3E-2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8">
+        <v>0.9</v>
+      </c>
+      <c r="C8">
+        <v>0.9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>19</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62287680-0905-4CBC-B264-9F7DA2E2DC8B}">
-  <dimension ref="B3"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="3" spans="2:2" ht="46.2" x14ac:dyDescent="0.85">
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A203A176-D83D-4241-AD66-9D5E10E44D23}">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="11.88671875" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2">
-        <v>-150</v>
-      </c>
-      <c r="D2">
-        <v>-246</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>3.9E-2</v>
-      </c>
-      <c r="D4">
-        <v>2.3E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5">
-        <v>0.9</v>
-      </c>
-      <c r="D5">
-        <v>0.9</v>
-      </c>
-    </row>
-  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E5" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="F5" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="E7" r:id="rId3" display="Regolith_data_mars" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="F7" r:id="rId4" display="Condictivity_moon" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="E8" r:id="rId5" display="Regolith_emmisivity_Mars" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Habitat_Design_Specification.xlsx
+++ b/Habitat_Design_Specification.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="10452" yWindow="1728" windowWidth="14340" windowHeight="8880" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Design Specification" sheetId="1" state="visible" r:id="rId1"/>
@@ -225,7 +225,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
@@ -262,8 +262,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -691,8 +689,8 @@
   </sheetPr>
   <dimension ref="A3:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -724,17 +722,17 @@
       <c r="P3" s="25" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="26" t="inlineStr">
+      <c r="A4" s="14" t="inlineStr">
         <is>
           <t>Geometric outline</t>
         </is>
       </c>
-      <c r="B4" s="27" t="inlineStr">
+      <c r="B4" s="15" t="inlineStr">
         <is>
           <t>Amount</t>
         </is>
       </c>
-      <c r="C4" s="27" t="inlineStr">
+      <c r="C4" s="15" t="inlineStr">
         <is>
           <t>Unit</t>
         </is>
@@ -759,7 +757,7 @@
         </is>
       </c>
       <c r="B5" s="16" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="C5" s="17" t="inlineStr">
         <is>
@@ -779,12 +777,12 @@
       <c r="P5" s="11" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="27" t="inlineStr">
+      <c r="A6" s="15" t="inlineStr">
         <is>
           <t>Floors</t>
         </is>
       </c>
-      <c r="B6" s="27" t="n">
+      <c r="B6" s="15" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="C6" s="19" t="inlineStr">
@@ -833,12 +831,12 @@
       <c r="P7" s="11" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="27" t="inlineStr">
+      <c r="A8" s="15" t="inlineStr">
         <is>
           <t>Base diameter</t>
         </is>
       </c>
-      <c r="B8" s="27" t="n"/>
+      <c r="B8" s="15" t="n"/>
       <c r="C8" s="19" t="inlineStr">
         <is>
           <t>[]</t>
@@ -904,8 +902,8 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="27" t="n"/>
-      <c r="B12" s="27" t="n"/>
+      <c r="A12" s="15" t="n"/>
+      <c r="B12" s="15" t="n"/>
       <c r="C12" s="19" t="inlineStr">
         <is>
           <t>[kW]</t>
@@ -922,8 +920,8 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="27" t="n"/>
-      <c r="B14" s="27" t="n"/>
+      <c r="A14" s="15" t="n"/>
+      <c r="B14" s="15" t="n"/>
       <c r="C14" s="19" t="inlineStr">
         <is>
           <t>[kW]</t>
@@ -940,8 +938,8 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="26" t="n"/>
-      <c r="B16" s="27" t="n"/>
+      <c r="A16" s="14" t="n"/>
+      <c r="B16" s="15" t="n"/>
       <c r="C16" s="19" t="inlineStr">
         <is>
           <t>[kW]</t>
@@ -962,13 +960,13 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="26" t="inlineStr">
+      <c r="A18" s="14" t="inlineStr">
         <is>
           <t>Heating/Radiator</t>
         </is>
       </c>
-      <c r="B18" s="27" t="n">
-        <v>-0.903677782860531</v>
+      <c r="B18" s="15" t="n">
+        <v>0.1009602692747351</v>
       </c>
       <c r="C18" s="19" t="inlineStr">
         <is>
@@ -999,12 +997,12 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="27" t="inlineStr">
+      <c r="A21" s="15" t="inlineStr">
         <is>
           <t>Lifesupport</t>
         </is>
       </c>
-      <c r="B21" s="27" t="n">
+      <c r="B21" s="15" t="n">
         <v>50</v>
       </c>
       <c r="C21" s="19" t="inlineStr">
@@ -1029,12 +1027,12 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="27" t="inlineStr">
+      <c r="A23" s="15" t="inlineStr">
         <is>
           <t>Workshop</t>
         </is>
       </c>
-      <c r="B23" s="27" t="n">
+      <c r="B23" s="15" t="n">
         <v>1</v>
       </c>
       <c r="C23" s="19" t="inlineStr">
@@ -1059,8 +1057,8 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="27" t="n"/>
-      <c r="B25" s="27" t="n">
+      <c r="A25" s="15" t="n"/>
+      <c r="B25" s="15" t="n">
         <v>52</v>
       </c>
       <c r="C25" s="19" t="inlineStr">

--- a/Habitat_Design_Specification.xlsx
+++ b/Habitat_Design_Specification.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gille\Documents\TU Delft\00 Master ASM\03 Q3\02 Knoweledge Based engineering\Parapy test\pythonProject\KBE assignment\20240409_Main_branch_clone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C691FAF9-3F15-45D3-95BA-216C2DCFD019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61F899C-EEFB-4BB5-8ED0-2ADF4F2DD3BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-180" yWindow="2400" windowWidth="38700" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1380" yWindow="1416" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Design Specification" sheetId="1" r:id="rId1"/>
@@ -2430,25 +2430,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" customWidth="1"/>
-    <col min="15" max="17" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.44140625" customWidth="1"/>
+    <col min="14" max="14" width="13.5546875" customWidth="1"/>
+    <col min="15" max="17" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="46" t="s">
         <v>0</v>
       </c>
@@ -2468,7 +2468,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>4</v>
       </c>
@@ -2495,7 +2495,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
         <v>10</v>
       </c>
@@ -2525,7 +2525,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
         <v>16</v>
       </c>
@@ -2554,7 +2554,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>22</v>
       </c>
@@ -2583,7 +2583,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
         <v>26</v>
       </c>
@@ -2597,7 +2597,7 @@
       <c r="F8" s="35"/>
       <c r="G8" s="36"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
         <v>27</v>
       </c>
@@ -2611,7 +2611,7 @@
       <c r="F9" s="37"/>
       <c r="G9" s="37"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="23" t="s">
         <v>28</v>
       </c>
@@ -2625,7 +2625,7 @@
       <c r="F10" s="37"/>
       <c r="G10" s="37"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="26"/>
       <c r="B11" s="26"/>
       <c r="C11" s="27"/>
@@ -2635,7 +2635,7 @@
       <c r="F11" s="41"/>
       <c r="G11" s="42"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="47" t="s">
         <v>31</v>
       </c>
@@ -2647,7 +2647,7 @@
       <c r="F12" s="41"/>
       <c r="G12" s="42"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="21" t="s">
         <v>33</v>
       </c>
@@ -2667,7 +2667,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="23" t="s">
         <v>36</v>
       </c>
@@ -2687,7 +2687,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
         <v>38</v>
       </c>
@@ -2707,7 +2707,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="23" t="s">
         <v>40</v>
       </c>
@@ -2723,7 +2723,7 @@
       <c r="F16" s="41"/>
       <c r="G16" s="42"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="21" t="s">
         <v>42</v>
       </c>
@@ -2743,7 +2743,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="23" t="s">
         <v>43</v>
       </c>
@@ -2763,7 +2763,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="28" t="s">
         <v>44</v>
       </c>
@@ -2783,7 +2783,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="30" t="s">
         <v>45</v>
       </c>
@@ -2795,7 +2795,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="28" t="s">
         <v>63</v>
       </c>
@@ -2811,19 +2811,19 @@
       <c r="F21" s="50"/>
       <c r="G21" s="50"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="31"/>
       <c r="B22" s="26"/>
       <c r="C22" s="27"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="40" t="s">
         <v>46</v>
       </c>
       <c r="B23" s="43"/>
       <c r="C23" s="44"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="21" t="s">
         <v>33</v>
       </c>
@@ -2834,7 +2834,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="23" t="s">
         <v>36</v>
       </c>
@@ -2845,7 +2845,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="21" t="s">
         <v>38</v>
       </c>
@@ -2856,7 +2856,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="23" t="s">
         <v>40</v>
       </c>
@@ -2867,7 +2867,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="21" t="s">
         <v>42</v>
       </c>
@@ -2878,7 +2878,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="23" t="s">
         <v>43</v>
       </c>
@@ -2889,7 +2889,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="28" t="s">
         <v>44</v>
       </c>
@@ -2900,7 +2900,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="32" t="s">
         <v>48</v>
       </c>
@@ -2912,19 +2912,19 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="19"/>
       <c r="B32" s="19"/>
       <c r="C32" s="20"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C33" s="17"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="18"/>
       <c r="C34" s="17"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C35" s="17"/>
     </row>
   </sheetData>
@@ -2949,21 +2949,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -2977,7 +2977,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>51</v>
       </c>
@@ -2997,10 +2997,10 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -3020,7 +3020,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -3037,7 +3037,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>62</v>
       </c>
@@ -3048,15 +3048,15 @@
         <v>717</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>64</v>
       </c>
       <c r="B10">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="C10">
-        <v>1300</v>
+        <v>1361</v>
       </c>
     </row>
   </sheetData>
